--- a/examples/1928+738/2024-12-13/Pol_LL/43.3/model_params.xlsx
+++ b/examples/1928+738/2024-12-13/Pol_LL/43.3/model_params.xlsx
@@ -525,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4785244049357908</v>
+        <v>0.4681531281571996</v>
       </c>
       <c r="C2">
-        <v>4.00535007009637</v>
+        <v>4.994247508601619</v>
       </c>
       <c r="D2">
-        <v>0.4684814856681916</v>
+        <v>0.4785914696269824</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01054068859488577</v>
+        <v>0.01285698093276366</v>
       </c>
       <c r="C3">
-        <v>2.807132151607994</v>
+        <v>2.786642421871023</v>
       </c>
       <c r="D3">
-        <v>0.01072300567827522</v>
+        <v>0.01260380753137635</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -559,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01249084102903653</v>
+        <v>0.02068429408472638</v>
       </c>
       <c r="C4">
-        <v>0.6160407717433757</v>
+        <v>0.5762014818212394</v>
       </c>
       <c r="D4">
-        <v>0.01202014126611206</v>
+        <v>0.01956739032037402</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02766142162834997</v>
+        <v>0.03884983781259743</v>
       </c>
       <c r="C5">
-        <v>0.2601228593722563</v>
+        <v>0.289029640945192</v>
       </c>
       <c r="D5">
-        <v>0.0233575824889895</v>
+        <v>0.03180043009560241</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -593,13 +593,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2714894794696221</v>
+        <v>0.3264363870066846</v>
       </c>
       <c r="C6">
-        <v>4.804784441632282</v>
+        <v>4.801395835679148</v>
       </c>
       <c r="D6">
-        <v>0.1800747748980305</v>
+        <v>0.1865484792829744</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -610,13 +610,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0760291485266964</v>
+        <v>0.1320351262127599</v>
       </c>
       <c r="C7">
-        <v>0.5756207084911302</v>
+        <v>0.75069140424601</v>
       </c>
       <c r="D7">
-        <v>0.06945506122251</v>
+        <v>0.2244449456037985</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -627,13 +627,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1362959463333491</v>
+        <v>0.279778598077467</v>
       </c>
       <c r="C8">
-        <v>-4.926465089434742</v>
+        <v>-4.541136381630387</v>
       </c>
       <c r="D8">
-        <v>0.1429080396092068</v>
+        <v>0.177323603999854</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -644,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.008003829083979723</v>
+        <v>0.006701630133569841</v>
       </c>
       <c r="C9">
-        <v>0.05016339099404192</v>
+        <v>0.02091757627763903</v>
       </c>
       <c r="D9">
-        <v>0.01039665624679661</v>
+        <v>0.02154807224154482</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -661,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3528347248510619</v>
+        <v>1.098880538298574</v>
       </c>
       <c r="C10">
-        <v>2.350448007867682</v>
+        <v>1.166391023333148</v>
       </c>
       <c r="D10">
-        <v>0.4165180430895563</v>
+        <v>1.644093218295638</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -678,13 +678,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04215632915144063</v>
+        <v>0.4806063242427369</v>
       </c>
       <c r="C11">
-        <v>-4.95545106312561</v>
+        <v>-0.1868428733015349</v>
       </c>
       <c r="D11">
-        <v>0.08666636205784517</v>
+        <v>0.5047331152695034</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -695,13 +695,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1602483864966757</v>
+        <v>0.2358634673694251</v>
       </c>
       <c r="C12">
-        <v>-7.201438091739486</v>
+        <v>-11.44561402461581</v>
       </c>
       <c r="D12">
-        <v>0.1544079695001912</v>
+        <v>0.2367225538213233</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -712,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.002181236414081158</v>
+        <v>0.009367021891277791</v>
       </c>
       <c r="C13">
-        <v>0.01923365449903674</v>
+        <v>0.03155086133759804</v>
       </c>
       <c r="D13">
-        <v>0.002757236308057825</v>
+        <v>0.01779917046036207</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -729,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2355243794082059</v>
+        <v>1.101097423544291</v>
       </c>
       <c r="C14">
-        <v>0.2475537535773051</v>
+        <v>1.235815393362159</v>
       </c>
       <c r="D14">
-        <v>0.5432201883563322</v>
+        <v>0.7729909747997115</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -746,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1926274767036054</v>
+        <v>0.2690715189467303</v>
       </c>
       <c r="C15">
-        <v>2.870876113516193</v>
+        <v>3.017630989302519</v>
       </c>
       <c r="D15">
-        <v>0.1897326460761035</v>
+        <v>0.2812992276840522</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -763,13 +763,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.100882970039029</v>
+        <v>0.1079603256183628</v>
       </c>
       <c r="C16">
-        <v>-10.59260842776679</v>
+        <v>-10.89011201718782</v>
       </c>
       <c r="D16">
-        <v>0.1054041452254868</v>
+        <v>0.1198597650218396</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -780,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.954995816347556</v>
+        <v>0.009453962396758504</v>
       </c>
       <c r="C17">
-        <v>2.059397520423289</v>
+        <v>0.03187069806771167</v>
       </c>
       <c r="D17">
-        <v>1.952533079108371</v>
+        <v>0.01235685066804729</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -797,13 +797,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.34821614833785</v>
+        <v>0.6330185539466056</v>
       </c>
       <c r="C18">
-        <v>2.465636157357643</v>
+        <v>1.728374803907692</v>
       </c>
       <c r="D18">
-        <v>2.393033585001682</v>
+        <v>0.5517153716829619</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -814,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.747865246848541</v>
+        <v>0.2768159197034459</v>
       </c>
       <c r="C19">
-        <v>0.00466270298677207</v>
+        <v>-4.379174006063695</v>
       </c>
       <c r="D19">
-        <v>4.749004918288239</v>
+        <v>0.2547431470740822</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -831,13 +831,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.48666765180128</v>
+        <v>0.2644524503294008</v>
       </c>
       <c r="C20">
-        <v>-10.0015050345847</v>
+        <v>-7.463078618139642</v>
       </c>
       <c r="D20">
-        <v>9.516347312222093</v>
+        <v>0.249130480172</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -848,13 +848,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.014464087655156</v>
+        <v>1.946486418532909</v>
       </c>
       <c r="C21">
-        <v>2.116507901441974</v>
+        <v>2.056250895666987</v>
       </c>
       <c r="D21">
-        <v>1.91146312863967</v>
+        <v>1.961585612692725</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.359674771296271</v>
+        <v>2.382559648364763</v>
       </c>
       <c r="C22">
-        <v>2.481892495628125</v>
+        <v>2.514897271972683</v>
       </c>
       <c r="D22">
-        <v>2.388028530544096</v>
+        <v>2.360665847574556</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.740818100363716</v>
+        <v>4.753248166110226</v>
       </c>
       <c r="C23">
-        <v>0.002326187519882525</v>
+        <v>0.01344149681059413</v>
       </c>
       <c r="D23">
-        <v>4.745267063542342</v>
+        <v>4.733626996497209</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -899,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.423590612263459</v>
+        <v>9.834034746113101</v>
       </c>
       <c r="C24">
-        <v>-10.06820869948202</v>
+        <v>-9.686330427212866</v>
       </c>
       <c r="D24">
-        <v>9.609109780928323</v>
+        <v>9.246114265148709</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -916,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.947171857730094</v>
+        <v>1.941599837062252</v>
       </c>
       <c r="C25">
-        <v>2.039200110872731</v>
+        <v>2.056093861313683</v>
       </c>
       <c r="D25">
-        <v>1.969906023903698</v>
+        <v>1.967240695598538</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -933,13 +933,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.378114182635028</v>
+        <v>2.399458607921154</v>
       </c>
       <c r="C26">
-        <v>2.499040738101684</v>
+        <v>2.533837819129936</v>
       </c>
       <c r="D26">
-        <v>2.375456615375708</v>
+        <v>2.335256767960709</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.765394575110403</v>
+        <v>4.73347562459987</v>
       </c>
       <c r="C27">
-        <v>0.02628830925433412</v>
+        <v>-0.01969528866115323</v>
       </c>
       <c r="D27">
-        <v>4.732097284932798</v>
+        <v>4.746706430886658</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -967,13 +967,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.55952355580308</v>
+        <v>9.445692965783167</v>
       </c>
       <c r="C28">
-        <v>-9.927758475377319</v>
+        <v>-10.04119528841963</v>
       </c>
       <c r="D28">
-        <v>9.440932465360763</v>
+        <v>9.524180142980891</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -984,13 +984,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.972732358853982</v>
+        <v>1.921713469940199</v>
       </c>
       <c r="C29">
-        <v>2.082882739414792</v>
+        <v>2.017992419846069</v>
       </c>
       <c r="D29">
-        <v>1.93761837735436</v>
+        <v>1.995476105963426</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1001,13 +1001,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.311425104610457</v>
+        <v>2.347684179337739</v>
       </c>
       <c r="C30">
-        <v>2.439074661381232</v>
+        <v>2.46930894137577</v>
       </c>
       <c r="D30">
-        <v>2.439208287679021</v>
+        <v>2.40800047642828</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1018,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.802993189086577</v>
+        <v>4.857203496306555</v>
       </c>
       <c r="C31">
-        <v>0.05234196542941349</v>
+        <v>0.1301458240263364</v>
       </c>
       <c r="D31">
-        <v>4.692575910541479</v>
+        <v>4.604851126683291</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1035,13 +1035,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.283640475198508</v>
+        <v>9.416987696431161</v>
       </c>
       <c r="C32">
-        <v>-10.20638485910019</v>
+        <v>-10.05396216277699</v>
       </c>
       <c r="D32">
-        <v>9.680882199819576</v>
+        <v>9.530727218454162</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1052,13 +1052,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.949580387143524</v>
+        <v>1.961361197735571</v>
       </c>
       <c r="C33">
-        <v>2.056484764403196</v>
+        <v>2.070349141748794</v>
       </c>
       <c r="D33">
-        <v>1.962655909650444</v>
+        <v>1.950366070100995</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1069,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.380193501600994</v>
+        <v>2.45557281516052</v>
       </c>
       <c r="C34">
-        <v>2.499249036933896</v>
+        <v>2.582247420836338</v>
       </c>
       <c r="D34">
-        <v>2.376025613666227</v>
+        <v>2.288383700206932</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1086,13 +1086,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.701025217852094</v>
+        <v>4.603302349042818</v>
       </c>
       <c r="C35">
-        <v>-0.05740900281742616</v>
+        <v>-0.1897099531878492</v>
       </c>
       <c r="D35">
-        <v>4.779039642229414</v>
+        <v>4.907664828257568</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1103,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.533592640146214</v>
+        <v>9.339294442796586</v>
       </c>
       <c r="C36">
-        <v>-9.956830017061471</v>
+        <v>-10.16436306058237</v>
       </c>
       <c r="D36">
-        <v>9.433482236860177</v>
+        <v>9.617867750535</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.973832882123517</v>
+        <v>1.913834650263124</v>
       </c>
       <c r="C37">
-        <v>2.094577033261483</v>
+        <v>2.014384023415424</v>
       </c>
       <c r="D37">
-        <v>1.935101964412769</v>
+        <v>1.998078683034616</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -1137,13 +1137,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.388073374625307</v>
+        <v>2.442419086035459</v>
       </c>
       <c r="C38">
-        <v>2.507348059698254</v>
+        <v>2.572852705673398</v>
       </c>
       <c r="D38">
-        <v>2.368020342141356</v>
+        <v>2.307089767659439</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1154,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.704320108475152</v>
+        <v>4.623544163738688</v>
       </c>
       <c r="C39">
-        <v>-0.03909118378530031</v>
+        <v>-0.1262534422548244</v>
       </c>
       <c r="D39">
-        <v>4.808262193966836</v>
+        <v>4.869102329773324</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1171,13 +1171,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.459997117347124</v>
+        <v>9.687351199079544</v>
       </c>
       <c r="C40">
-        <v>-10.0271901055393</v>
+        <v>-9.775337288309657</v>
       </c>
       <c r="D40">
-        <v>9.486386686166215</v>
+        <v>9.302953134911213</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
